--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/20190507-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/20190507-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F88505-6D5C-4EFE-B44E-841C0F76E26A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D43E67D-5698-4C7C-9C70-6CCC9A7FE35A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="744" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="452">
   <si>
     <r>
       <rPr>
@@ -3820,6 +3820,18 @@
   </si>
   <si>
     <t>Bussinese TypeTh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾照</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car License</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4593,22 +4605,22 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.2109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.2109375" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="1025" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
@@ -4677,7 +4689,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="49.5">
       <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="66">
       <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
@@ -4732,7 +4744,7 @@
       <c r="C14" s="23"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="33">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -4805,7 +4817,7 @@
       </c>
       <c r="E26" s="48"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="34" t="s">
         <v>43</v>
       </c>
@@ -4835,16 +4847,16 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="5.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.92578125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" customWidth="1"/>
-    <col min="8" max="1024" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
+    <col min="8" max="1024" width="10.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5018,11 +5030,11 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="23.08203125" customWidth="1"/>
+    <col min="8" max="8" width="23.0703125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5177,22 +5189,22 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="47.58203125" customWidth="1"/>
-    <col min="6" max="6" width="34.58203125" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.58203125" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="29.58203125" customWidth="1"/>
-    <col min="11" max="11" width="19.58203125" customWidth="1"/>
-    <col min="12" max="12" width="29.58203125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5571,24 +5583,24 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="3" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="25.58203125" customWidth="1"/>
-    <col min="5" max="5" width="21.58203125" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
-    <col min="7" max="7" width="42.58203125" customWidth="1"/>
-    <col min="8" max="8" width="19.4140625" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" customWidth="1"/>
-    <col min="10" max="10" width="10.4140625" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="21.58203125" customWidth="1"/>
-    <col min="15" max="15" width="16.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.2109375" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.2109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="17" width="28" customWidth="1"/>
-    <col min="18" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="18" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6054,11 +6066,11 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.92578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.92578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6075,7 +6087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
+    <row r="4" spans="1:8" ht="33">
       <c r="F4" s="41" t="s">
         <v>4</v>
       </c>
@@ -6172,16 +6184,16 @@
       <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="5.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.92578125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="13.58203125" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="43.83203125" customWidth="1"/>
-    <col min="9" max="1025" width="10.25" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+    <col min="9" max="1025" width="10.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7480,26 +7492,26 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="35.4140625" customWidth="1"/>
-    <col min="8" max="8" width="33.4140625" customWidth="1"/>
-    <col min="9" max="9" width="34.58203125" customWidth="1"/>
-    <col min="10" max="10" width="19.4140625" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.2109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.2109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8064,7 +8076,7 @@
         <v>280</v>
       </c>
       <c r="F31" s="47" t="str">
-        <f t="shared" ref="F31:F33" si="3">$E$12</f>
+        <f t="shared" ref="F31:F34" si="3">$E$12</f>
         <v>HR.CERTIFICATE_TYPETH</v>
       </c>
       <c r="G31" s="8" t="s">
@@ -8129,6 +8141,30 @@
       </c>
       <c r="K33" s="8" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="E34" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>HR.CERTIFICATE_TYPETH</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -8143,32 +8179,32 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
-    <col min="2" max="3" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.58203125" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.35546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.4140625" customWidth="1"/>
-    <col min="10" max="10" width="12.58203125" customWidth="1"/>
-    <col min="11" max="11" width="22.58203125" customWidth="1"/>
-    <col min="12" max="12" width="10.4140625" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" customWidth="1"/>
-    <col min="14" max="14" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
-    <col min="18" max="18" width="11.58203125" customWidth="1"/>
-    <col min="19" max="20" width="10.4140625" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" customWidth="1"/>
-    <col min="22" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.2109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.92578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="19" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8204,7 +8240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="48">
+    <row r="7" spans="1:26" ht="47">
       <c r="A7" s="9">
         <v>43189</v>
       </c>
@@ -8556,23 +8592,23 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.4140625" customWidth="1"/>
-    <col min="2" max="3" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="24.58203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="35.4140625" customWidth="1"/>
-    <col min="8" max="8" width="33.4140625" customWidth="1"/>
-    <col min="9" max="9" width="34.58203125" customWidth="1"/>
-    <col min="10" max="11" width="19.4140625" customWidth="1"/>
-    <col min="12" max="12" width="17.58203125" customWidth="1"/>
-    <col min="13" max="13" width="19.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" customWidth="1"/>
-    <col min="17" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
